--- a/ЛР №1/lab_1/Orlov/keyboard_2/data_exp_1/17_keys/17_keys.xlsx
+++ b/ЛР №1/lab_1/Orlov/keyboard_2/data_exp_1/17_keys/17_keys.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учёба\МАИ\4 курс\Базы и банки данных\ЛР №1\lab_1\Orlov\keyboard_2\data_exp_1\17_keys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учёба\МАИ\4 курс\Базы и банки данных\данные\Петя\клавиатура 2\эксперимент 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A83DC9C-56EC-4D4F-9D88-8A1CDB6383A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBB83600-C6F7-48EF-B5A2-31B688904C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5400" yWindow="0" windowWidth="16200" windowHeight="9970"/>
   </bookViews>
@@ -1317,7 +1317,7 @@
             <charset val="204"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Верная реакция</t>
+          <t>Выброс</t>
         </r>
       </text>
     </comment>
@@ -3765,7 +3765,7 @@
             <charset val="204"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Выброс</t>
+          <t>Верная реакция</t>
         </r>
       </text>
     </comment>
@@ -4065,7 +4065,7 @@
             <charset val="204"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Выброс</t>
+          <t>Верная реакция</t>
         </r>
       </text>
     </comment>
@@ -4095,7 +4095,7 @@
             <charset val="204"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Ошибочная реакция</t>
+          <t>Верная реакция</t>
         </r>
       </text>
     </comment>
@@ -5091,7 +5091,7 @@
             <charset val="204"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Ошибочная реакция</t>
+          <t>Верная реакция</t>
         </r>
       </text>
     </comment>
@@ -5358,7 +5358,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="24">
   <si>
     <t>Результаты проведения эксперимента</t>
   </si>
@@ -5369,7 +5369,7 @@
     <t>Дата:</t>
   </si>
   <si>
-    <t>22 апреля 2024 г. 19:31</t>
+    <t>23 апреля 2024 г. 12:11</t>
   </si>
   <si>
     <t>Оператор:</t>
@@ -5417,6 +5417,9 @@
     <t>Матрица замеров (число стимулов: 3)</t>
   </si>
   <si>
+    <t>#3</t>
+  </si>
+  <si>
     <t>Матрица замеров (число стимулов: 6)</t>
   </si>
   <si>
@@ -5424,12 +5427,6 @@
   </si>
   <si>
     <t>Матрица замеров (число стимулов: 13)</t>
-  </si>
-  <si>
-    <t>#3</t>
-  </si>
-  <si>
-    <t>#1</t>
   </si>
   <si>
     <t>Матрица замеров (число стимулов: 17)</t>
@@ -5629,7 +5626,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5818,12 +5815,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00FFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6040,7 +6031,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -6088,10 +6079,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -6830,7 +6817,7 @@
         <v>1</v>
       </c>
       <c r="W3" s="15">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="X3" s="19" t="s">
         <v>17</v>
@@ -6847,7 +6834,7 @@
         <v>1</v>
       </c>
       <c r="W4" s="15">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="X4" s="19" t="s">
         <v>17</v>
@@ -6864,7 +6851,7 @@
         <v>1</v>
       </c>
       <c r="W5" s="15">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="X5" s="19" t="s">
         <v>17</v>
@@ -6881,7 +6868,7 @@
         <v>1</v>
       </c>
       <c r="W6" s="15">
-        <v>244</v>
+        <v>294</v>
       </c>
       <c r="X6" s="19" t="s">
         <v>17</v>
@@ -6898,7 +6885,7 @@
         <v>1</v>
       </c>
       <c r="W7" s="15">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="X7" s="19" t="s">
         <v>17</v>
@@ -6915,7 +6902,7 @@
         <v>1</v>
       </c>
       <c r="W8" s="15">
-        <v>298</v>
+        <v>198</v>
       </c>
       <c r="X8" s="19" t="s">
         <v>17</v>
@@ -6932,7 +6919,7 @@
         <v>1</v>
       </c>
       <c r="W9" s="15">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="X9" s="19" t="s">
         <v>17</v>
@@ -6949,7 +6936,7 @@
         <v>1</v>
       </c>
       <c r="W10" s="15">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="X10" s="19" t="s">
         <v>17</v>
@@ -6966,7 +6953,7 @@
         <v>1</v>
       </c>
       <c r="W11" s="15">
-        <v>273</v>
+        <v>207</v>
       </c>
       <c r="X11" s="19" t="s">
         <v>17</v>
@@ -6983,7 +6970,7 @@
         <v>1</v>
       </c>
       <c r="W12" s="15">
-        <v>316</v>
+        <v>242</v>
       </c>
       <c r="X12" s="19" t="s">
         <v>17</v>
@@ -7000,7 +6987,7 @@
         <v>1</v>
       </c>
       <c r="W13" s="15">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="X13" s="19" t="s">
         <v>17</v>
@@ -7017,7 +7004,7 @@
         <v>1</v>
       </c>
       <c r="W14" s="15">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="X14" s="19" t="s">
         <v>17</v>
@@ -7034,7 +7021,7 @@
         <v>1</v>
       </c>
       <c r="W15" s="15">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="X15" s="19" t="s">
         <v>17</v>
@@ -7051,7 +7038,7 @@
         <v>1</v>
       </c>
       <c r="W16" s="15">
-        <v>247</v>
+        <v>168</v>
       </c>
       <c r="X16" s="19" t="s">
         <v>17</v>
@@ -7068,7 +7055,7 @@
         <v>1</v>
       </c>
       <c r="W17" s="15">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="X17" s="19" t="s">
         <v>17</v>
@@ -7085,7 +7072,7 @@
         <v>1</v>
       </c>
       <c r="W18" s="15">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="X18" s="19" t="s">
         <v>17</v>
@@ -7102,7 +7089,7 @@
         <v>1</v>
       </c>
       <c r="W19" s="15">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="X19" s="19" t="s">
         <v>17</v>
@@ -7119,7 +7106,7 @@
         <v>1</v>
       </c>
       <c r="W20" s="15">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="X20" s="19" t="s">
         <v>17</v>
@@ -7136,7 +7123,7 @@
         <v>1</v>
       </c>
       <c r="W21" s="15">
-        <v>246</v>
+        <v>288</v>
       </c>
       <c r="X21" s="19" t="s">
         <v>17</v>
@@ -7153,7 +7140,7 @@
         <v>1</v>
       </c>
       <c r="W22" s="15">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="X22" s="19" t="s">
         <v>17</v>
@@ -7170,7 +7157,7 @@
         <v>1</v>
       </c>
       <c r="W23" s="15">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="X23" s="19" t="s">
         <v>17</v>
@@ -7187,7 +7174,7 @@
         <v>1</v>
       </c>
       <c r="W24" s="15">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="X24" s="19" t="s">
         <v>17</v>
@@ -7204,7 +7191,7 @@
         <v>1</v>
       </c>
       <c r="W25" s="15">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="X25" s="19" t="s">
         <v>17</v>
@@ -7221,7 +7208,7 @@
         <v>1</v>
       </c>
       <c r="W26" s="15">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="X26" s="19" t="s">
         <v>17</v>
@@ -7238,7 +7225,7 @@
         <v>1</v>
       </c>
       <c r="W27" s="15">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="X27" s="19" t="s">
         <v>17</v>
@@ -7255,7 +7242,7 @@
         <v>1</v>
       </c>
       <c r="W28" s="15">
-        <v>298</v>
+        <v>247</v>
       </c>
       <c r="X28" s="19" t="s">
         <v>17</v>
@@ -7272,7 +7259,7 @@
         <v>1</v>
       </c>
       <c r="W29" s="15">
-        <v>239</v>
+        <v>295</v>
       </c>
       <c r="X29" s="19" t="s">
         <v>17</v>
@@ -7289,7 +7276,7 @@
         <v>1</v>
       </c>
       <c r="W30" s="15">
-        <v>310</v>
+        <v>242</v>
       </c>
       <c r="X30" s="19" t="s">
         <v>17</v>
@@ -7306,7 +7293,7 @@
         <v>1</v>
       </c>
       <c r="W31" s="15">
-        <v>329</v>
+        <v>243</v>
       </c>
       <c r="X31" s="19" t="s">
         <v>17</v>
@@ -7440,7 +7427,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="15">
         <v>0</v>
@@ -7494,13 +7481,13 @@
         <v>1</v>
       </c>
       <c r="U3" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V3" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W3" s="15">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="X3" s="19" t="s">
         <v>17</v>
@@ -7565,13 +7552,13 @@
         <v>2</v>
       </c>
       <c r="U4" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V4" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W4" s="15">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="X4" s="19" t="s">
         <v>17</v>
@@ -7588,7 +7575,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="15">
         <v>0</v>
@@ -7642,7 +7629,7 @@
         <v>2</v>
       </c>
       <c r="W5" s="15">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="X5" s="19" t="s">
         <v>17</v>
@@ -7659,7 +7646,7 @@
         <v>1</v>
       </c>
       <c r="W6" s="15">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="X6" s="19" t="s">
         <v>17</v>
@@ -7670,13 +7657,13 @@
         <v>5</v>
       </c>
       <c r="U7" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V7" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W7" s="15">
-        <v>361</v>
+        <v>306</v>
       </c>
       <c r="X7" s="19" t="s">
         <v>17</v>
@@ -7687,13 +7674,13 @@
         <v>6</v>
       </c>
       <c r="U8" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V8" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W8" s="15">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="X8" s="19" t="s">
         <v>17</v>
@@ -7704,13 +7691,13 @@
         <v>7</v>
       </c>
       <c r="U9" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V9" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W9" s="15">
-        <v>444</v>
+        <v>287</v>
       </c>
       <c r="X9" s="19" t="s">
         <v>17</v>
@@ -7727,7 +7714,7 @@
         <v>3</v>
       </c>
       <c r="W10" s="15">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="X10" s="19" t="s">
         <v>17</v>
@@ -7738,16 +7725,16 @@
         <v>9</v>
       </c>
       <c r="U11" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V11" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W11" s="15">
-        <v>389</v>
-      </c>
-      <c r="X11" s="19" t="s">
-        <v>17</v>
+        <v>425</v>
+      </c>
+      <c r="X11" s="20" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
@@ -7761,7 +7748,7 @@
         <v>3</v>
       </c>
       <c r="W12" s="15">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="X12" s="19" t="s">
         <v>17</v>
@@ -7772,13 +7759,13 @@
         <v>11</v>
       </c>
       <c r="U13" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V13" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W13" s="15">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="X13" s="19" t="s">
         <v>17</v>
@@ -7789,13 +7776,13 @@
         <v>12</v>
       </c>
       <c r="U14" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V14" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W14" s="15">
-        <v>418</v>
+        <v>378</v>
       </c>
       <c r="X14" s="19" t="s">
         <v>17</v>
@@ -7806,13 +7793,13 @@
         <v>13</v>
       </c>
       <c r="U15" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V15" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W15" s="15">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="X15" s="19" t="s">
         <v>17</v>
@@ -7829,7 +7816,7 @@
         <v>3</v>
       </c>
       <c r="W16" s="15">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="X16" s="19" t="s">
         <v>17</v>
@@ -7840,13 +7827,13 @@
         <v>15</v>
       </c>
       <c r="U17" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V17" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W17" s="15">
-        <v>405</v>
+        <v>326</v>
       </c>
       <c r="X17" s="19" t="s">
         <v>17</v>
@@ -7857,13 +7844,13 @@
         <v>16</v>
       </c>
       <c r="U18" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V18" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W18" s="15">
-        <v>367</v>
+        <v>311</v>
       </c>
       <c r="X18" s="19" t="s">
         <v>17</v>
@@ -7874,13 +7861,13 @@
         <v>17</v>
       </c>
       <c r="U19" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V19" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W19" s="15">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="X19" s="19" t="s">
         <v>17</v>
@@ -7897,7 +7884,7 @@
         <v>2</v>
       </c>
       <c r="W20" s="15">
-        <v>373</v>
+        <v>337</v>
       </c>
       <c r="X20" s="19" t="s">
         <v>17</v>
@@ -7908,13 +7895,13 @@
         <v>19</v>
       </c>
       <c r="U21" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V21" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W21" s="15">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="X21" s="19" t="s">
         <v>17</v>
@@ -7925,13 +7912,13 @@
         <v>20</v>
       </c>
       <c r="U22" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V22" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W22" s="15">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="X22" s="19" t="s">
         <v>17</v>
@@ -7942,13 +7929,13 @@
         <v>21</v>
       </c>
       <c r="U23" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V23" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W23" s="15">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="X23" s="19" t="s">
         <v>17</v>
@@ -7965,7 +7952,7 @@
         <v>1</v>
       </c>
       <c r="W24" s="15">
-        <v>373</v>
+        <v>326</v>
       </c>
       <c r="X24" s="19" t="s">
         <v>17</v>
@@ -7976,13 +7963,13 @@
         <v>23</v>
       </c>
       <c r="U25" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V25" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W25" s="15">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="X25" s="19" t="s">
         <v>17</v>
@@ -7993,13 +7980,13 @@
         <v>24</v>
       </c>
       <c r="U26" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V26" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W26" s="15">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="X26" s="19" t="s">
         <v>17</v>
@@ -8010,13 +7997,13 @@
         <v>25</v>
       </c>
       <c r="U27" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V27" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W27" s="15">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="X27" s="19" t="s">
         <v>17</v>
@@ -8027,13 +8014,13 @@
         <v>26</v>
       </c>
       <c r="U28" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V28" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W28" s="15">
-        <v>428</v>
+        <v>343</v>
       </c>
       <c r="X28" s="19" t="s">
         <v>17</v>
@@ -8050,7 +8037,7 @@
         <v>3</v>
       </c>
       <c r="W29" s="15">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="X29" s="19" t="s">
         <v>17</v>
@@ -8067,7 +8054,7 @@
         <v>2</v>
       </c>
       <c r="W30" s="15">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="X30" s="19" t="s">
         <v>17</v>
@@ -8078,13 +8065,13 @@
         <v>29</v>
       </c>
       <c r="U31" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V31" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W31" s="15">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="X31" s="19" t="s">
         <v>17</v>
@@ -8117,7 +8104,7 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -8272,13 +8259,13 @@
         <v>1</v>
       </c>
       <c r="U3" s="15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V3" s="15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W3" s="15">
-        <v>435</v>
+        <v>392</v>
       </c>
       <c r="X3" s="19" t="s">
         <v>17</v>
@@ -8343,13 +8330,13 @@
         <v>2</v>
       </c>
       <c r="U4" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V4" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W4" s="15">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="X4" s="19" t="s">
         <v>17</v>
@@ -8366,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" s="15">
         <v>0</v>
@@ -8414,13 +8401,13 @@
         <v>3</v>
       </c>
       <c r="U5" s="15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V5" s="15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="W5" s="15">
-        <v>413</v>
+        <v>356</v>
       </c>
       <c r="X5" s="19" t="s">
         <v>17</v>
@@ -8491,7 +8478,7 @@
         <v>4</v>
       </c>
       <c r="W6" s="15">
-        <v>370</v>
+        <v>322</v>
       </c>
       <c r="X6" s="19" t="s">
         <v>17</v>
@@ -8514,7 +8501,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7" s="15">
         <v>0</v>
@@ -8556,13 +8543,13 @@
         <v>5</v>
       </c>
       <c r="U7" s="15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V7" s="15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W7" s="15">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="X7" s="19" t="s">
         <v>17</v>
@@ -8627,13 +8614,13 @@
         <v>6</v>
       </c>
       <c r="U8" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V8" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W8" s="15">
-        <v>392</v>
+        <v>511</v>
       </c>
       <c r="X8" s="19" t="s">
         <v>17</v>
@@ -8644,13 +8631,13 @@
         <v>7</v>
       </c>
       <c r="U9" s="15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V9" s="15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W9" s="15">
-        <v>407</v>
+        <v>470</v>
       </c>
       <c r="X9" s="19" t="s">
         <v>17</v>
@@ -8661,13 +8648,13 @@
         <v>8</v>
       </c>
       <c r="U10" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V10" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W10" s="15">
-        <v>415</v>
+        <v>378</v>
       </c>
       <c r="X10" s="19" t="s">
         <v>17</v>
@@ -8678,13 +8665,13 @@
         <v>9</v>
       </c>
       <c r="U11" s="15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V11" s="15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W11" s="15">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="X11" s="19" t="s">
         <v>17</v>
@@ -8695,13 +8682,13 @@
         <v>10</v>
       </c>
       <c r="U12" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V12" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W12" s="15">
-        <v>424</v>
+        <v>353</v>
       </c>
       <c r="X12" s="19" t="s">
         <v>17</v>
@@ -8712,13 +8699,13 @@
         <v>11</v>
       </c>
       <c r="U13" s="15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V13" s="15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W13" s="15">
-        <v>441</v>
+        <v>411</v>
       </c>
       <c r="X13" s="19" t="s">
         <v>17</v>
@@ -8729,13 +8716,13 @@
         <v>12</v>
       </c>
       <c r="U14" s="15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V14" s="15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W14" s="15">
-        <v>388</v>
+        <v>361</v>
       </c>
       <c r="X14" s="19" t="s">
         <v>17</v>
@@ -8746,13 +8733,13 @@
         <v>13</v>
       </c>
       <c r="U15" s="15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V15" s="15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W15" s="15">
-        <v>438</v>
+        <v>387</v>
       </c>
       <c r="X15" s="19" t="s">
         <v>17</v>
@@ -8763,13 +8750,13 @@
         <v>14</v>
       </c>
       <c r="U16" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V16" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W16" s="15">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="X16" s="19" t="s">
         <v>17</v>
@@ -8780,13 +8767,13 @@
         <v>15</v>
       </c>
       <c r="U17" s="15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V17" s="15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W17" s="15">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="X17" s="19" t="s">
         <v>17</v>
@@ -8797,13 +8784,13 @@
         <v>16</v>
       </c>
       <c r="U18" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V18" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W18" s="15">
-        <v>384</v>
+        <v>439</v>
       </c>
       <c r="X18" s="19" t="s">
         <v>17</v>
@@ -8814,13 +8801,13 @@
         <v>17</v>
       </c>
       <c r="U19" s="15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V19" s="15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="W19" s="15">
-        <v>413</v>
+        <v>343</v>
       </c>
       <c r="X19" s="19" t="s">
         <v>17</v>
@@ -8831,13 +8818,13 @@
         <v>18</v>
       </c>
       <c r="U20" s="15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V20" s="15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W20" s="15">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="X20" s="19" t="s">
         <v>17</v>
@@ -8848,13 +8835,13 @@
         <v>19</v>
       </c>
       <c r="U21" s="15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V21" s="15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W21" s="15">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="X21" s="19" t="s">
         <v>17</v>
@@ -8865,13 +8852,13 @@
         <v>20</v>
       </c>
       <c r="U22" s="15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V22" s="15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="W22" s="15">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="X22" s="19" t="s">
         <v>17</v>
@@ -8882,13 +8869,13 @@
         <v>21</v>
       </c>
       <c r="U23" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V23" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W23" s="15">
-        <v>400</v>
+        <v>341</v>
       </c>
       <c r="X23" s="19" t="s">
         <v>17</v>
@@ -8899,13 +8886,13 @@
         <v>22</v>
       </c>
       <c r="U24" s="15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V24" s="15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W24" s="15">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="X24" s="19" t="s">
         <v>17</v>
@@ -8922,7 +8909,7 @@
         <v>3</v>
       </c>
       <c r="W25" s="15">
-        <v>446</v>
+        <v>485</v>
       </c>
       <c r="X25" s="19" t="s">
         <v>17</v>
@@ -8939,7 +8926,7 @@
         <v>5</v>
       </c>
       <c r="W26" s="15">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="X26" s="19" t="s">
         <v>17</v>
@@ -8950,13 +8937,13 @@
         <v>25</v>
       </c>
       <c r="U27" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V27" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W27" s="15">
-        <v>426</v>
+        <v>350</v>
       </c>
       <c r="X27" s="19" t="s">
         <v>17</v>
@@ -8967,13 +8954,13 @@
         <v>26</v>
       </c>
       <c r="U28" s="15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V28" s="15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W28" s="15">
-        <v>384</v>
+        <v>440</v>
       </c>
       <c r="X28" s="19" t="s">
         <v>17</v>
@@ -8990,7 +8977,7 @@
         <v>4</v>
       </c>
       <c r="W29" s="15">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="X29" s="19" t="s">
         <v>17</v>
@@ -9001,13 +8988,13 @@
         <v>28</v>
       </c>
       <c r="U30" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V30" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W30" s="15">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="X30" s="19" t="s">
         <v>17</v>
@@ -9018,13 +9005,13 @@
         <v>29</v>
       </c>
       <c r="U31" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V31" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W31" s="15">
-        <v>429</v>
+        <v>374</v>
       </c>
       <c r="X31" s="19" t="s">
         <v>17</v>
@@ -9057,7 +9044,7 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -9218,7 +9205,7 @@
         <v>3</v>
       </c>
       <c r="W3" s="15">
-        <v>448</v>
+        <v>422</v>
       </c>
       <c r="X3" s="19" t="s">
         <v>17</v>
@@ -9283,13 +9270,13 @@
         <v>2</v>
       </c>
       <c r="U4" s="15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V4" s="15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="W4" s="15">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="X4" s="19" t="s">
         <v>17</v>
@@ -9354,13 +9341,13 @@
         <v>3</v>
       </c>
       <c r="U5" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V5" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W5" s="15">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="X5" s="19" t="s">
         <v>17</v>
@@ -9380,7 +9367,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" s="15">
         <v>0</v>
@@ -9425,13 +9412,13 @@
         <v>4</v>
       </c>
       <c r="U6" s="15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V6" s="15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W6" s="15">
-        <v>453</v>
+        <v>394</v>
       </c>
       <c r="X6" s="19" t="s">
         <v>17</v>
@@ -9502,7 +9489,7 @@
         <v>8</v>
       </c>
       <c r="W7" s="15">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="X7" s="19" t="s">
         <v>17</v>
@@ -9567,13 +9554,13 @@
         <v>6</v>
       </c>
       <c r="U8" s="15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="V8" s="15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="W8" s="15">
-        <v>506</v>
+        <v>374</v>
       </c>
       <c r="X8" s="19" t="s">
         <v>17</v>
@@ -9638,13 +9625,13 @@
         <v>7</v>
       </c>
       <c r="U9" s="15">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="V9" s="15">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W9" s="15">
-        <v>431</v>
+        <v>314</v>
       </c>
       <c r="X9" s="19" t="s">
         <v>17</v>
@@ -9709,13 +9696,13 @@
         <v>8</v>
       </c>
       <c r="U10" s="15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V10" s="15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W10" s="15">
-        <v>403</v>
+        <v>374</v>
       </c>
       <c r="X10" s="19" t="s">
         <v>17</v>
@@ -9750,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K11" s="15">
         <v>0</v>
@@ -9780,13 +9767,13 @@
         <v>9</v>
       </c>
       <c r="U11" s="15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V11" s="15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W11" s="15">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="X11" s="19" t="s">
         <v>17</v>
@@ -9797,13 +9784,13 @@
         <v>10</v>
       </c>
       <c r="U12" s="15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V12" s="15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W12" s="15">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="X12" s="19" t="s">
         <v>17</v>
@@ -9814,13 +9801,13 @@
         <v>11</v>
       </c>
       <c r="U13" s="15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V13" s="15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W13" s="15">
-        <v>433</v>
+        <v>329</v>
       </c>
       <c r="X13" s="19" t="s">
         <v>17</v>
@@ -9831,13 +9818,13 @@
         <v>12</v>
       </c>
       <c r="U14" s="15">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="V14" s="15">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="W14" s="15">
-        <v>551</v>
+        <v>395</v>
       </c>
       <c r="X14" s="19" t="s">
         <v>17</v>
@@ -9854,7 +9841,7 @@
         <v>7</v>
       </c>
       <c r="W15" s="15">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="X15" s="19" t="s">
         <v>17</v>
@@ -9865,13 +9852,13 @@
         <v>14</v>
       </c>
       <c r="U16" s="15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V16" s="15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="W16" s="15">
-        <v>466</v>
+        <v>353</v>
       </c>
       <c r="X16" s="19" t="s">
         <v>17</v>
@@ -9882,13 +9869,13 @@
         <v>15</v>
       </c>
       <c r="U17" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V17" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W17" s="15">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="X17" s="19" t="s">
         <v>17</v>
@@ -9899,13 +9886,13 @@
         <v>16</v>
       </c>
       <c r="U18" s="15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V18" s="15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W18" s="15">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="X18" s="19" t="s">
         <v>17</v>
@@ -9916,13 +9903,13 @@
         <v>17</v>
       </c>
       <c r="U19" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V19" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W19" s="15">
-        <v>457</v>
+        <v>485</v>
       </c>
       <c r="X19" s="19" t="s">
         <v>17</v>
@@ -9939,7 +9926,7 @@
         <v>4</v>
       </c>
       <c r="W20" s="15">
-        <v>380</v>
+        <v>334</v>
       </c>
       <c r="X20" s="19" t="s">
         <v>17</v>
@@ -9956,7 +9943,7 @@
         <v>8</v>
       </c>
       <c r="W21" s="15">
-        <v>474</v>
+        <v>427</v>
       </c>
       <c r="X21" s="19" t="s">
         <v>17</v>
@@ -9967,13 +9954,13 @@
         <v>20</v>
       </c>
       <c r="U22" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V22" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W22" s="15">
-        <v>392</v>
+        <v>363</v>
       </c>
       <c r="X22" s="19" t="s">
         <v>17</v>
@@ -9984,13 +9971,13 @@
         <v>21</v>
       </c>
       <c r="U23" s="15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V23" s="15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="W23" s="15">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="X23" s="19" t="s">
         <v>17</v>
@@ -10001,13 +9988,13 @@
         <v>22</v>
       </c>
       <c r="U24" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V24" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W24" s="15">
-        <v>448</v>
+        <v>361</v>
       </c>
       <c r="X24" s="19" t="s">
         <v>17</v>
@@ -10018,13 +10005,13 @@
         <v>23</v>
       </c>
       <c r="U25" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V25" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W25" s="15">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="X25" s="19" t="s">
         <v>17</v>
@@ -10035,13 +10022,13 @@
         <v>24</v>
       </c>
       <c r="U26" s="15">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="V26" s="15">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W26" s="15">
-        <v>450</v>
+        <v>402</v>
       </c>
       <c r="X26" s="19" t="s">
         <v>17</v>
@@ -10052,13 +10039,13 @@
         <v>25</v>
       </c>
       <c r="U27" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V27" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W27" s="15">
-        <v>422</v>
+        <v>370</v>
       </c>
       <c r="X27" s="19" t="s">
         <v>17</v>
@@ -10069,13 +10056,13 @@
         <v>26</v>
       </c>
       <c r="U28" s="15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="V28" s="15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="W28" s="15">
-        <v>464</v>
+        <v>428</v>
       </c>
       <c r="X28" s="19" t="s">
         <v>17</v>
@@ -10086,13 +10073,13 @@
         <v>27</v>
       </c>
       <c r="U29" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V29" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W29" s="15">
-        <v>467</v>
+        <v>397</v>
       </c>
       <c r="X29" s="19" t="s">
         <v>17</v>
@@ -10103,13 +10090,13 @@
         <v>28</v>
       </c>
       <c r="U30" s="15">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="V30" s="15">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="W30" s="15">
-        <v>467</v>
+        <v>364</v>
       </c>
       <c r="X30" s="19" t="s">
         <v>17</v>
@@ -10126,7 +10113,7 @@
         <v>5</v>
       </c>
       <c r="W31" s="15">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="X31" s="19" t="s">
         <v>17</v>
@@ -10159,7 +10146,7 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -10260,7 +10247,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="15">
         <v>0</v>
@@ -10314,13 +10301,13 @@
         <v>1</v>
       </c>
       <c r="U3" s="15">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="V3" s="15">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="W3" s="15">
-        <v>404</v>
+        <v>373</v>
       </c>
       <c r="X3" s="19" t="s">
         <v>17</v>
@@ -10385,16 +10372,16 @@
         <v>2</v>
       </c>
       <c r="U4" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V4" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W4" s="15">
-        <v>636</v>
-      </c>
-      <c r="X4" s="20" t="s">
-        <v>22</v>
+        <v>405</v>
+      </c>
+      <c r="X4" s="19" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
@@ -10408,7 +10395,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" s="15">
         <v>0</v>
@@ -10456,13 +10443,13 @@
         <v>3</v>
       </c>
       <c r="U5" s="15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V5" s="15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="W5" s="15">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="X5" s="19" t="s">
         <v>17</v>
@@ -10482,7 +10469,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" s="15">
         <v>0</v>
@@ -10527,13 +10514,13 @@
         <v>4</v>
       </c>
       <c r="U6" s="15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V6" s="15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W6" s="15">
-        <v>445</v>
+        <v>534</v>
       </c>
       <c r="X6" s="19" t="s">
         <v>17</v>
@@ -10598,13 +10585,13 @@
         <v>5</v>
       </c>
       <c r="U7" s="15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V7" s="15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W7" s="15">
-        <v>429</v>
+        <v>460</v>
       </c>
       <c r="X7" s="19" t="s">
         <v>17</v>
@@ -10669,13 +10656,13 @@
         <v>6</v>
       </c>
       <c r="U8" s="15">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="V8" s="15">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="W8" s="15">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="X8" s="19" t="s">
         <v>17</v>
@@ -10740,13 +10727,13 @@
         <v>7</v>
       </c>
       <c r="U9" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V9" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W9" s="15">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="X9" s="19" t="s">
         <v>17</v>
@@ -10811,13 +10798,13 @@
         <v>8</v>
       </c>
       <c r="U10" s="15">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="V10" s="15">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="W10" s="15">
-        <v>390</v>
+        <v>457</v>
       </c>
       <c r="X10" s="19" t="s">
         <v>17</v>
@@ -10882,13 +10869,13 @@
         <v>9</v>
       </c>
       <c r="U11" s="15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V11" s="15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W11" s="15">
-        <v>493</v>
+        <v>413</v>
       </c>
       <c r="X11" s="19" t="s">
         <v>17</v>
@@ -10953,13 +10940,13 @@
         <v>10</v>
       </c>
       <c r="U12" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V12" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W12" s="15">
-        <v>424</v>
+        <v>377</v>
       </c>
       <c r="X12" s="19" t="s">
         <v>17</v>
@@ -10975,8 +10962,8 @@
       <c r="C13" s="15">
         <v>0</v>
       </c>
-      <c r="D13" s="21">
-        <v>1</v>
+      <c r="D13" s="15">
+        <v>0</v>
       </c>
       <c r="E13" s="15">
         <v>0</v>
@@ -11000,7 +10987,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M13" s="15">
         <v>0</v>
@@ -11024,13 +11011,13 @@
         <v>11</v>
       </c>
       <c r="U13" s="15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V13" s="15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W13" s="15">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="X13" s="19" t="s">
         <v>17</v>
@@ -11095,16 +11082,16 @@
         <v>12</v>
       </c>
       <c r="U14" s="15">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V14" s="15">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="W14" s="15">
-        <v>645</v>
-      </c>
-      <c r="X14" s="20" t="s">
-        <v>22</v>
+        <v>434</v>
+      </c>
+      <c r="X14" s="19" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
@@ -11166,16 +11153,16 @@
         <v>13</v>
       </c>
       <c r="U15" s="15">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V15" s="15">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="W15" s="15">
-        <v>512</v>
-      </c>
-      <c r="X15" s="22" t="s">
-        <v>23</v>
+        <v>441</v>
+      </c>
+      <c r="X15" s="19" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
@@ -11183,13 +11170,13 @@
         <v>14</v>
       </c>
       <c r="U16" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V16" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W16" s="15">
-        <v>474</v>
+        <v>373</v>
       </c>
       <c r="X16" s="19" t="s">
         <v>17</v>
@@ -11200,13 +11187,13 @@
         <v>15</v>
       </c>
       <c r="U17" s="15">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="V17" s="15">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="W17" s="15">
-        <v>482</v>
+        <v>438</v>
       </c>
       <c r="X17" s="19" t="s">
         <v>17</v>
@@ -11217,13 +11204,13 @@
         <v>16</v>
       </c>
       <c r="U18" s="15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V18" s="15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W18" s="15">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="X18" s="19" t="s">
         <v>17</v>
@@ -11234,13 +11221,13 @@
         <v>17</v>
       </c>
       <c r="U19" s="15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V19" s="15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W19" s="15">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="X19" s="19" t="s">
         <v>17</v>
@@ -11251,13 +11238,13 @@
         <v>18</v>
       </c>
       <c r="U20" s="15">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="V20" s="15">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="W20" s="15">
-        <v>491</v>
+        <v>445</v>
       </c>
       <c r="X20" s="19" t="s">
         <v>17</v>
@@ -11268,13 +11255,13 @@
         <v>19</v>
       </c>
       <c r="U21" s="15">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="V21" s="15">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="W21" s="15">
-        <v>494</v>
+        <v>522</v>
       </c>
       <c r="X21" s="19" t="s">
         <v>17</v>
@@ -11285,13 +11272,13 @@
         <v>20</v>
       </c>
       <c r="U22" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V22" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W22" s="15">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="X22" s="19" t="s">
         <v>17</v>
@@ -11302,13 +11289,13 @@
         <v>21</v>
       </c>
       <c r="U23" s="15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V23" s="15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W23" s="15">
-        <v>448</v>
+        <v>421</v>
       </c>
       <c r="X23" s="19" t="s">
         <v>17</v>
@@ -11319,13 +11306,13 @@
         <v>22</v>
       </c>
       <c r="U24" s="15">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="V24" s="15">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="W24" s="15">
-        <v>504</v>
+        <v>416</v>
       </c>
       <c r="X24" s="19" t="s">
         <v>17</v>
@@ -11336,13 +11323,13 @@
         <v>23</v>
       </c>
       <c r="U25" s="15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V25" s="15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W25" s="15">
-        <v>459</v>
+        <v>395</v>
       </c>
       <c r="X25" s="19" t="s">
         <v>17</v>
@@ -11353,13 +11340,13 @@
         <v>24</v>
       </c>
       <c r="U26" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V26" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W26" s="15">
-        <v>458</v>
+        <v>424</v>
       </c>
       <c r="X26" s="19" t="s">
         <v>17</v>
@@ -11370,13 +11357,13 @@
         <v>25</v>
       </c>
       <c r="U27" s="15">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="V27" s="15">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="W27" s="15">
-        <v>381</v>
+        <v>411</v>
       </c>
       <c r="X27" s="19" t="s">
         <v>17</v>
@@ -11387,13 +11374,13 @@
         <v>26</v>
       </c>
       <c r="U28" s="15">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="V28" s="15">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="W28" s="15">
-        <v>513</v>
+        <v>490</v>
       </c>
       <c r="X28" s="19" t="s">
         <v>17</v>
@@ -11404,13 +11391,13 @@
         <v>27</v>
       </c>
       <c r="U29" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V29" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W29" s="15">
-        <v>389</v>
+        <v>459</v>
       </c>
       <c r="X29" s="19" t="s">
         <v>17</v>
@@ -11421,13 +11408,13 @@
         <v>28</v>
       </c>
       <c r="U30" s="15">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="V30" s="15">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="W30" s="15">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="X30" s="19" t="s">
         <v>17</v>
@@ -11438,13 +11425,13 @@
         <v>29</v>
       </c>
       <c r="U31" s="15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V31" s="15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W31" s="15">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="X31" s="19" t="s">
         <v>17</v>
@@ -11477,7 +11464,7 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -11632,13 +11619,13 @@
         <v>1</v>
       </c>
       <c r="U3" s="15">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="V3" s="15">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="W3" s="15">
-        <v>375</v>
+        <v>450</v>
       </c>
       <c r="X3" s="19" t="s">
         <v>17</v>
@@ -11703,13 +11690,13 @@
         <v>2</v>
       </c>
       <c r="U4" s="15">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="V4" s="15">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="W4" s="15">
-        <v>530</v>
+        <v>411</v>
       </c>
       <c r="X4" s="19" t="s">
         <v>17</v>
@@ -11774,13 +11761,13 @@
         <v>3</v>
       </c>
       <c r="U5" s="15">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V5" s="15">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="W5" s="15">
-        <v>525</v>
+        <v>430</v>
       </c>
       <c r="X5" s="19" t="s">
         <v>17</v>
@@ -11845,13 +11832,13 @@
         <v>4</v>
       </c>
       <c r="U6" s="15">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V6" s="15">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="W6" s="15">
-        <v>488</v>
+        <v>438</v>
       </c>
       <c r="X6" s="19" t="s">
         <v>17</v>
@@ -11874,7 +11861,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" s="15">
         <v>0</v>
@@ -11916,13 +11903,13 @@
         <v>5</v>
       </c>
       <c r="U7" s="15">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="V7" s="15">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="W7" s="15">
-        <v>657</v>
+        <v>409</v>
       </c>
       <c r="X7" s="19" t="s">
         <v>17</v>
@@ -11948,7 +11935,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="15">
         <v>0</v>
@@ -11987,13 +11974,13 @@
         <v>6</v>
       </c>
       <c r="U8" s="15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="V8" s="15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="W8" s="15">
-        <v>524</v>
+        <v>451</v>
       </c>
       <c r="X8" s="19" t="s">
         <v>17</v>
@@ -12022,7 +12009,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" s="15">
         <v>0</v>
@@ -12058,13 +12045,13 @@
         <v>7</v>
       </c>
       <c r="U9" s="15">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="V9" s="15">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="W9" s="15">
-        <v>465</v>
+        <v>404</v>
       </c>
       <c r="X9" s="19" t="s">
         <v>17</v>
@@ -12096,7 +12083,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" s="15">
         <v>0</v>
@@ -12129,13 +12116,13 @@
         <v>8</v>
       </c>
       <c r="U10" s="15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V10" s="15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W10" s="15">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="X10" s="19" t="s">
         <v>17</v>
@@ -12200,13 +12187,13 @@
         <v>9</v>
       </c>
       <c r="U11" s="15">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="V11" s="15">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="W11" s="15">
-        <v>394</v>
+        <v>444</v>
       </c>
       <c r="X11" s="19" t="s">
         <v>17</v>
@@ -12244,7 +12231,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12" s="15">
         <v>0</v>
@@ -12271,13 +12258,13 @@
         <v>10</v>
       </c>
       <c r="U12" s="15">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="V12" s="15">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="W12" s="15">
-        <v>534</v>
+        <v>487</v>
       </c>
       <c r="X12" s="19" t="s">
         <v>17</v>
@@ -12342,13 +12329,13 @@
         <v>11</v>
       </c>
       <c r="U13" s="15">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="V13" s="15">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="W13" s="15">
-        <v>462</v>
+        <v>419</v>
       </c>
       <c r="X13" s="19" t="s">
         <v>17</v>
@@ -12413,13 +12400,13 @@
         <v>12</v>
       </c>
       <c r="U14" s="15">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="V14" s="15">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="W14" s="15">
-        <v>547</v>
+        <v>501</v>
       </c>
       <c r="X14" s="19" t="s">
         <v>17</v>
@@ -12466,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O15" s="15">
         <v>0</v>
@@ -12484,13 +12471,13 @@
         <v>13</v>
       </c>
       <c r="U15" s="15">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="V15" s="15">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="W15" s="15">
-        <v>566</v>
+        <v>457</v>
       </c>
       <c r="X15" s="19" t="s">
         <v>17</v>
@@ -12555,16 +12542,16 @@
         <v>14</v>
       </c>
       <c r="U16" s="15">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V16" s="15">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="W16" s="15">
-        <v>547</v>
-      </c>
-      <c r="X16" s="22" t="s">
-        <v>23</v>
+        <v>443</v>
+      </c>
+      <c r="X16" s="19" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
@@ -12610,11 +12597,11 @@
       <c r="N17" s="15">
         <v>0</v>
       </c>
-      <c r="O17" s="21">
-        <v>1</v>
+      <c r="O17" s="15">
+        <v>0</v>
       </c>
       <c r="P17" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q17" s="15">
         <v>0</v>
@@ -12626,13 +12613,13 @@
         <v>15</v>
       </c>
       <c r="U17" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V17" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W17" s="15">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="X17" s="19" t="s">
         <v>17</v>
@@ -12697,13 +12684,13 @@
         <v>16</v>
       </c>
       <c r="U18" s="15">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="V18" s="15">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="W18" s="15">
-        <v>510</v>
+        <v>403</v>
       </c>
       <c r="X18" s="19" t="s">
         <v>17</v>
@@ -12762,19 +12749,19 @@
         <v>0</v>
       </c>
       <c r="R19" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T19" s="15">
         <v>17</v>
       </c>
       <c r="U19" s="15">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="V19" s="15">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="W19" s="15">
-        <v>467</v>
+        <v>535</v>
       </c>
       <c r="X19" s="19" t="s">
         <v>17</v>
@@ -12785,13 +12772,13 @@
         <v>18</v>
       </c>
       <c r="U20" s="15">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="V20" s="15">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="W20" s="15">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="X20" s="19" t="s">
         <v>17</v>
@@ -12802,13 +12789,13 @@
         <v>19</v>
       </c>
       <c r="U21" s="15">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="V21" s="15">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="W21" s="15">
-        <v>509</v>
+        <v>492</v>
       </c>
       <c r="X21" s="19" t="s">
         <v>17</v>
@@ -12819,13 +12806,13 @@
         <v>20</v>
       </c>
       <c r="U22" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V22" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W22" s="15">
-        <v>446</v>
+        <v>491</v>
       </c>
       <c r="X22" s="19" t="s">
         <v>17</v>
@@ -12836,13 +12823,13 @@
         <v>21</v>
       </c>
       <c r="U23" s="15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V23" s="15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W23" s="15">
-        <v>491</v>
+        <v>364</v>
       </c>
       <c r="X23" s="19" t="s">
         <v>17</v>
@@ -12853,13 +12840,13 @@
         <v>22</v>
       </c>
       <c r="U24" s="15">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="V24" s="15">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="W24" s="15">
-        <v>533</v>
+        <v>411</v>
       </c>
       <c r="X24" s="19" t="s">
         <v>17</v>
@@ -12870,13 +12857,13 @@
         <v>23</v>
       </c>
       <c r="U25" s="15">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="V25" s="15">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="W25" s="15">
-        <v>569</v>
+        <v>478</v>
       </c>
       <c r="X25" s="19" t="s">
         <v>17</v>
@@ -12887,13 +12874,13 @@
         <v>24</v>
       </c>
       <c r="U26" s="15">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="V26" s="15">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="W26" s="15">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="X26" s="19" t="s">
         <v>17</v>
@@ -12904,13 +12891,13 @@
         <v>25</v>
       </c>
       <c r="U27" s="15">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="V27" s="15">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="W27" s="15">
-        <v>484</v>
+        <v>421</v>
       </c>
       <c r="X27" s="19" t="s">
         <v>17</v>
@@ -12921,13 +12908,13 @@
         <v>26</v>
       </c>
       <c r="U28" s="15">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="V28" s="15">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W28" s="15">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="X28" s="19" t="s">
         <v>17</v>
@@ -12938,13 +12925,13 @@
         <v>27</v>
       </c>
       <c r="U29" s="15">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="V29" s="15">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="W29" s="15">
-        <v>548</v>
+        <v>418</v>
       </c>
       <c r="X29" s="19" t="s">
         <v>17</v>
@@ -12955,13 +12942,13 @@
         <v>28</v>
       </c>
       <c r="U30" s="15">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="V30" s="15">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="W30" s="15">
-        <v>528</v>
+        <v>432</v>
       </c>
       <c r="X30" s="19" t="s">
         <v>17</v>
@@ -12972,13 +12959,13 @@
         <v>29</v>
       </c>
       <c r="U31" s="15">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="V31" s="15">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="W31" s="15">
-        <v>499</v>
+        <v>402</v>
       </c>
       <c r="X31" s="19" t="s">
         <v>17</v>
